--- a/data/AlloCiné_Classement_Film.xlsx
+++ b/data/AlloCiné_Classement_Film.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,15 +444,10 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Année</t>
+          <t>Durée (min)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>Durée</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -477,17 +472,10 @@
           <t>Aventure, Fantastique</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3h 44min</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -510,17 +498,10 @@
           <t>Aventure, Fantastique</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4h 13min</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3" t="n">
+        <v>253</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -543,17 +524,10 @@
           <t>Fantastique</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3h 28min</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4" t="n">
+        <v>208</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -576,17 +550,10 @@
           <t>Comédie, Drame, Romance</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2h 20min</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5" t="n">
+        <v>140</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.6</v>
       </c>
     </row>
@@ -609,17 +576,10 @@
           <t>Biopic, Drame, Historique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3h 15min</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6" t="n">
+        <v>195</v>
+      </c>
+      <c r="F6" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -642,17 +602,10 @@
           <t>Policier, Drame, Fantastique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3h 09min</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" t="n">
+        <v>189</v>
+      </c>
+      <c r="F7" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -675,17 +628,10 @@
           <t>Drame, Judiciaire</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1h 35min</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="E8" t="n">
+        <v>95</v>
+      </c>
+      <c r="F8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -708,17 +654,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2h 55min</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9" t="n">
+        <v>175</v>
+      </c>
+      <c r="F9" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -741,17 +680,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2h 22min</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="E10" t="n">
+        <v>142</v>
+      </c>
+      <c r="F10" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -774,17 +706,10 @@
           <t>Aventure, Fantastique</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3h 21min</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11" t="n">
+        <v>201</v>
+      </c>
+      <c r="F11" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -807,17 +732,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2h 09min</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="E12" t="n">
+        <v>129</v>
+      </c>
+      <c r="F12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -840,17 +758,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1h 29min</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13" t="n">
+        <v>89</v>
+      </c>
+      <c r="F13" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -873,17 +784,10 @@
           <t>Action, Thriller</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2h 32min</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="E14" t="n">
+        <v>152</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -906,17 +810,10 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2h 55min</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="E15" t="n">
+        <v>175</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -939,17 +836,10 @@
           <t>Drame, Science Fiction</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2h 49min</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="E16" t="n">
+        <v>169</v>
+      </c>
+      <c r="F16" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -972,17 +862,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3h 49min</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="E17" t="n">
+        <v>229</v>
+      </c>
+      <c r="F17" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1005,17 +888,10 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3h 00min</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="E18" t="n">
+        <v>180</v>
+      </c>
+      <c r="F18" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -1038,17 +914,10 @@
           <t>Action, Aventure, Historique</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2h 35min</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="E19" t="n">
+        <v>155</v>
+      </c>
+      <c r="F19" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -1071,17 +940,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2h 29min</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="E20" t="n">
+        <v>149</v>
+      </c>
+      <c r="F20" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -1104,17 +966,10 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2h 44min</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="E21" t="n">
+        <v>164</v>
+      </c>
+      <c r="F21" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -1137,17 +992,10 @@
           <t>Aventure, Fantastique</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2h 58min</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="E22" t="n">
+        <v>178</v>
+      </c>
+      <c r="F22" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -1170,17 +1018,10 @@
           <t>Biopic, Historique, Guerre</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3h 51min</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="E23" t="n">
+        <v>231</v>
+      </c>
+      <c r="F23" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1203,17 +1044,10 @@
           <t>Aventure, Fantastique</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2h 59min</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="E24" t="n">
+        <v>179</v>
+      </c>
+      <c r="F24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1236,17 +1070,10 @@
           <t>Policier, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2h 10min</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="E25" t="n">
+        <v>130</v>
+      </c>
+      <c r="F25" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -1269,17 +1096,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1h 56min</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="E26" t="n">
+        <v>116</v>
+      </c>
+      <c r="F26" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -1302,17 +1122,10 @@
           <t>Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2h 04min</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="E27" t="n">
+        <v>124</v>
+      </c>
+      <c r="F27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1335,17 +1148,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="E28" t="n">
+        <v>125</v>
+      </c>
+      <c r="F28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1368,17 +1174,10 @@
           <t>Aventure, Historique</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2h 58min</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="E29" t="n">
+        <v>178</v>
+      </c>
+      <c r="F29" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -1401,17 +1200,10 @@
           <t>Biopic, Historique, Guerre</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3h 27min</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="E30" t="n">
+        <v>207</v>
+      </c>
+      <c r="F30" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -1434,17 +1226,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="E31" t="n">
+        <v>132</v>
+      </c>
+      <c r="F31" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -1467,17 +1252,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2h 25min</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="E32" t="n">
+        <v>145</v>
+      </c>
+      <c r="F32" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1500,17 +1278,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3h 20min</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="E33" t="n">
+        <v>200</v>
+      </c>
+      <c r="F33" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -1533,17 +1304,10 @@
           <t>Animation, Fantastique</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="E34" t="n">
+        <v>110</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1566,17 +1330,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2h 19min</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="E35" t="n">
+        <v>139</v>
+      </c>
+      <c r="F35" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -1599,17 +1356,10 @@
           <t>Animation, Famille, Fantastique</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="E36" t="n">
+        <v>105</v>
+      </c>
+      <c r="F36" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -1632,17 +1382,10 @@
           <t>Science Fiction, Thriller</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2h 28min</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="E37" t="n">
+        <v>148</v>
+      </c>
+      <c r="F37" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -1665,17 +1408,10 @@
           <t>Aventure, Comédie, Science Fiction</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1h 56min</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="E38" t="n">
+        <v>116</v>
+      </c>
+      <c r="F38" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -1698,17 +1434,10 @@
           <t>Comédie, Comédie dramatique, Drame</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="E39" t="n">
+        <v>117</v>
+      </c>
+      <c r="F39" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -1731,17 +1460,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2h 10min</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="E40" t="n">
+        <v>130</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1764,17 +1486,10 @@
           <t>Drame, Science Fiction</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2h 46min</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="E41" t="n">
+        <v>166</v>
+      </c>
+      <c r="F41" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -1797,17 +1512,10 @@
           <t>Comédie, Comédie dramatique, Drame</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1h 27min</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="E42" t="n">
+        <v>87</v>
+      </c>
+      <c r="F42" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -1830,17 +1538,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1h 46min</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="E43" t="n">
+        <v>106</v>
+      </c>
+      <c r="F43" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -1863,17 +1564,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0h 52min</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
+      <c r="E44" t="n">
+        <v>52</v>
+      </c>
+      <c r="F44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1896,17 +1590,10 @@
           <t>Animation, Drame, Guerre</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1h 30min</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="E45" t="n">
+        <v>90</v>
+      </c>
+      <c r="F45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1929,17 +1616,10 @@
           <t>Policier, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
+      <c r="E46" t="n">
+        <v>118</v>
+      </c>
+      <c r="F46" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -1962,17 +1642,10 @@
           <t>Drame, Musical</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1h 47min</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
+      <c r="E47" t="n">
+        <v>107</v>
+      </c>
+      <c r="F47" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -1995,17 +1668,10 @@
           <t>Epouvante-horreur, Thriller</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1h 49min</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+      <c r="E48" t="n">
+        <v>109</v>
+      </c>
+      <c r="F48" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2028,17 +1694,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
+      <c r="E49" t="n">
+        <v>119</v>
+      </c>
+      <c r="F49" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -2061,17 +1720,10 @@
           <t>Action, Aventure, Animation</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2h 21min</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
+      <c r="E50" t="n">
+        <v>141</v>
+      </c>
+      <c r="F50" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -2094,17 +1746,10 @@
           <t>Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2h 01min</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
+      <c r="E51" t="n">
+        <v>121</v>
+      </c>
+      <c r="F51" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -2127,17 +1772,10 @@
           <t>Drame, Historique, Romance</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>7h 03min</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
+      <c r="E52" t="n">
+        <v>423</v>
+      </c>
+      <c r="F52" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -2160,17 +1798,10 @@
           <t>Aventure, Animation, Fantastique</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="E53" t="n">
+        <v>125</v>
+      </c>
+      <c r="F53" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -2193,17 +1824,10 @@
           <t>Aventure, Animation, Comédie</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1h 42min</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="E54" t="n">
+        <v>102</v>
+      </c>
+      <c r="F54" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -2226,17 +1850,10 @@
           <t>Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
+      <c r="E55" t="n">
+        <v>133</v>
+      </c>
+      <c r="F55" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2259,17 +1876,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
+      <c r="E56" t="n">
+        <v>132</v>
+      </c>
+      <c r="F56" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -2292,17 +1902,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3h 02min</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
+      <c r="E57" t="n">
+        <v>182</v>
+      </c>
+      <c r="F57" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -2325,17 +1928,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3h 04min</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
+      <c r="E58" t="n">
+        <v>184</v>
+      </c>
+      <c r="F58" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -2358,17 +1954,10 @@
           <t>Comédie dramatique, Romance</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1h 27min</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
+      <c r="E59" t="n">
+        <v>87</v>
+      </c>
+      <c r="F59" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2391,17 +1980,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="E60" t="n">
+        <v>118</v>
+      </c>
+      <c r="F60" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -2424,17 +2006,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2h 02min</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+      <c r="E61" t="n">
+        <v>122</v>
+      </c>
+      <c r="F61" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -2457,17 +2032,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2h 04min</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+      <c r="E62" t="n">
+        <v>124</v>
+      </c>
+      <c r="F62" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2490,17 +2058,10 @@
           <t>Animation, Fantastique</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
+      <c r="E63" t="n">
+        <v>117</v>
+      </c>
+      <c r="F63" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -2523,17 +2084,10 @@
           <t>Biopic, Drame, Guerre</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2h 20min</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
+      <c r="E64" t="n">
+        <v>140</v>
+      </c>
+      <c r="F64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2556,17 +2110,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
+      <c r="E65" t="n">
+        <v>133</v>
+      </c>
+      <c r="F65" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -2589,17 +2136,10 @@
           <t>Aventure, Animation, Fantastique</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2h 15min</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
+      <c r="E66" t="n">
+        <v>135</v>
+      </c>
+      <c r="F66" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -2622,17 +2162,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
+      <c r="E67" t="n">
+        <v>118</v>
+      </c>
+      <c r="F67" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -2655,17 +2188,10 @@
           <t>Drame, Historique</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2h 28min</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
+      <c r="E68" t="n">
+        <v>148</v>
+      </c>
+      <c r="F68" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -2688,17 +2214,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2h 43min</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
+      <c r="E69" t="n">
+        <v>163</v>
+      </c>
+      <c r="F69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2721,17 +2240,10 @@
           <t>Action, Animation, Famille</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
+      <c r="E70" t="n">
+        <v>117</v>
+      </c>
+      <c r="F70" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2754,17 +2266,10 @@
           <t>Action, Aventure</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2h 07min</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
+      <c r="E71" t="n">
+        <v>127</v>
+      </c>
+      <c r="F71" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -2787,17 +2292,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1h 28min</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
+      <c r="E72" t="n">
+        <v>88</v>
+      </c>
+      <c r="F72" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -2820,17 +2318,10 @@
           <t>Biopic, Comédie, Drame</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1h 52min</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
+      <c r="E73" t="n">
+        <v>112</v>
+      </c>
+      <c r="F73" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -2853,17 +2344,10 @@
           <t>Thriller</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2h 17min</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
+      <c r="E74" t="n">
+        <v>137</v>
+      </c>
+      <c r="F74" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -2886,17 +2370,10 @@
           <t>Action, Science Fiction</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2h 15min</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
+      <c r="E75" t="n">
+        <v>135</v>
+      </c>
+      <c r="F75" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -2919,17 +2396,10 @@
           <t>Epouvante-horreur, Science Fiction</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1h 56min</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
+      <c r="E76" t="n">
+        <v>116</v>
+      </c>
+      <c r="F76" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -2952,17 +2422,10 @@
           <t>Action, Biopic, Arts Martiaux</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
+      <c r="E77" t="n">
+        <v>105</v>
+      </c>
+      <c r="F77" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -2985,17 +2448,10 @@
           <t>Action, Aventure</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1h 56min</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
+      <c r="E78" t="n">
+        <v>116</v>
+      </c>
+      <c r="F78" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -3018,17 +2474,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
+      <c r="E79" t="n">
+        <v>110</v>
+      </c>
+      <c r="F79" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -3051,17 +2500,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
+      <c r="E80" t="n">
+        <v>132</v>
+      </c>
+      <c r="F80" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -3084,17 +2526,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
+      <c r="E81" t="n">
+        <v>125</v>
+      </c>
+      <c r="F81" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -3117,17 +2552,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1h 56min</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
+      <c r="E82" t="n">
+        <v>116</v>
+      </c>
+      <c r="F82" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -3150,17 +2578,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2h 21min</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
+      <c r="E83" t="n">
+        <v>141</v>
+      </c>
+      <c r="F83" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -3183,17 +2604,10 @@
           <t>Aventure, Drame</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>3h 07min</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
+      <c r="E84" t="n">
+        <v>187</v>
+      </c>
+      <c r="F84" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3216,17 +2630,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2h 23min</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
+      <c r="E85" t="n">
+        <v>143</v>
+      </c>
+      <c r="F85" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -3249,17 +2656,10 @@
           <t>Animation, Drame, Famille</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2h 17min</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
+      <c r="E86" t="n">
+        <v>137</v>
+      </c>
+      <c r="F86" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3282,17 +2682,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>1h 37min</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
+      <c r="E87" t="n">
+        <v>97</v>
+      </c>
+      <c r="F87" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -3315,17 +2708,10 @@
           <t>Aventure, Animation, Comédie</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1h 40min</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
+      <c r="E88" t="n">
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -3348,17 +2734,10 @@
           <t>Drame, Fantastique, Romance</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
+      <c r="E89" t="n">
+        <v>105</v>
+      </c>
+      <c r="F89" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -3381,17 +2760,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2h 19min</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
+      <c r="E90" t="n">
+        <v>139</v>
+      </c>
+      <c r="F90" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -3414,17 +2786,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2h 07min</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
+      <c r="E91" t="n">
+        <v>127</v>
+      </c>
+      <c r="F91" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -3447,17 +2812,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>1h 12min</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
+      <c r="E92" t="n">
+        <v>72</v>
+      </c>
+      <c r="F92" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3480,17 +2838,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
+      <c r="E93" t="n">
+        <v>132</v>
+      </c>
+      <c r="F93" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -3513,17 +2864,10 @@
           <t>Thriller</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2h 33min</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
+      <c r="E94" t="n">
+        <v>153</v>
+      </c>
+      <c r="F94" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -3546,17 +2890,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>3h 14min</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
+      <c r="E95" t="n">
+        <v>194</v>
+      </c>
+      <c r="F95" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -3579,17 +2916,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2h 09min</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
+      <c r="E96" t="n">
+        <v>129</v>
+      </c>
+      <c r="F96" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -3612,17 +2942,10 @@
           <t>Epouvante-horreur, Thriller</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2h 23min</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
+      <c r="E97" t="n">
+        <v>143</v>
+      </c>
+      <c r="F97" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3645,17 +2968,10 @@
           <t>Aventure, Policier, Espionnage</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2h 16min</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
+      <c r="E98" t="n">
+        <v>136</v>
+      </c>
+      <c r="F98" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -3678,17 +2994,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2h 47min</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
+      <c r="E99" t="n">
+        <v>167</v>
+      </c>
+      <c r="F99" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -3711,17 +3020,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2h 23min</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
+      <c r="E100" t="n">
+        <v>143</v>
+      </c>
+      <c r="F100" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -3744,17 +3046,10 @@
           <t>Comédie, Comédie dramatique, Drame</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2h 09min</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
+      <c r="E101" t="n">
+        <v>129</v>
+      </c>
+      <c r="F101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3777,17 +3072,10 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>3h 54min</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
+      <c r="E102" t="n">
+        <v>234</v>
+      </c>
+      <c r="F102" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3810,17 +3098,10 @@
           <t>Comédie, Drame</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1h 43min</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
+      <c r="E103" t="n">
+        <v>103</v>
+      </c>
+      <c r="F103" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -3843,17 +3124,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>1h 39min</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
+      <c r="E104" t="n">
+        <v>99</v>
+      </c>
+      <c r="F104" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3876,17 +3150,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>1h 21min</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
+      <c r="E105" t="n">
+        <v>81</v>
+      </c>
+      <c r="F105" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3909,17 +3176,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>1h 49min</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
+      <c r="E106" t="n">
+        <v>109</v>
+      </c>
+      <c r="F106" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -3942,17 +3202,10 @@
           <t>Comédie, Comédie dramatique, Drame</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2h 08min</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
+      <c r="E107" t="n">
+        <v>128</v>
+      </c>
+      <c r="F107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3975,17 +3228,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>1h 35min</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
+      <c r="E108" t="n">
+        <v>95</v>
+      </c>
+      <c r="F108" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -4008,17 +3254,10 @@
           <t>Comédie musicale</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>1h 43min</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
+      <c r="E109" t="n">
+        <v>103</v>
+      </c>
+      <c r="F109" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -4041,17 +3280,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2h 15min</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
+      <c r="E110" t="n">
+        <v>135</v>
+      </c>
+      <c r="F110" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4074,17 +3306,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>3h 05min</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
+      <c r="E111" t="n">
+        <v>185</v>
+      </c>
+      <c r="F111" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4107,17 +3332,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>1h 29min</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
+      <c r="E112" t="n">
+        <v>89</v>
+      </c>
+      <c r="F112" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -4140,17 +3358,10 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -4173,17 +3384,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2h 16min</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
+      <c r="E114" t="n">
+        <v>136</v>
+      </c>
+      <c r="F114" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4206,17 +3410,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
+      <c r="E115" t="n">
+        <v>119</v>
+      </c>
+      <c r="F115" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -4239,17 +3436,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>1h 27min</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
+      <c r="E116" t="n">
+        <v>87</v>
+      </c>
+      <c r="F116" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -4272,17 +3462,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>1h 47min</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
+      <c r="E117" t="n">
+        <v>107</v>
+      </c>
+      <c r="F117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4305,17 +3488,10 @@
           <t>Comédie, Policier</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
+      <c r="E118" t="n">
+        <v>105</v>
+      </c>
+      <c r="F118" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -4338,17 +3514,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>1h 40min</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4371,17 +3540,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2h 03min</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
+      <c r="E120" t="n">
+        <v>123</v>
+      </c>
+      <c r="F120" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -4404,17 +3566,10 @@
           <t>Drame, Fantastique</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>1h 37min</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
+      <c r="E121" t="n">
+        <v>97</v>
+      </c>
+      <c r="F121" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4437,17 +3592,10 @@
           <t>Drame, Romance, Guerre</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>1h 37min</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
+      <c r="E122" t="n">
+        <v>97</v>
+      </c>
+      <c r="F122" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -4470,17 +3618,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2h 16min</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
+      <c r="E123" t="n">
+        <v>136</v>
+      </c>
+      <c r="F123" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -4503,17 +3644,10 @@
           <t>Action, Policier, Drame</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>1h 43min</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
+      <c r="E124" t="n">
+        <v>103</v>
+      </c>
+      <c r="F124" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4536,17 +3670,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2h 26min</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
+      <c r="E125" t="n">
+        <v>146</v>
+      </c>
+      <c r="F125" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -4569,17 +3696,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
+      <c r="E126" t="n">
+        <v>119</v>
+      </c>
+      <c r="F126" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -4602,17 +3722,10 @@
           <t>Action, Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2h 36min</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
+      <c r="E127" t="n">
+        <v>156</v>
+      </c>
+      <c r="F127" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -4635,17 +3748,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
+      <c r="E128" t="n">
+        <v>105</v>
+      </c>
+      <c r="F128" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -4668,17 +3774,10 @@
           <t>Aventure, Animation, Fantastique</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
+      <c r="E129" t="n">
+        <v>119</v>
+      </c>
+      <c r="F129" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -4701,17 +3800,10 @@
           <t>Action, Thriller</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2h 44min</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
+      <c r="E130" t="n">
+        <v>164</v>
+      </c>
+      <c r="F130" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -4734,17 +3826,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
+      <c r="E131" t="n">
+        <v>120</v>
+      </c>
+      <c r="F131" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4767,17 +3852,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2h 23min</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
+      <c r="E132" t="n">
+        <v>143</v>
+      </c>
+      <c r="F132" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -4800,17 +3878,10 @@
           <t>Drame, Epouvante-horreur, Thriller</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>1h 32min</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
+      <c r="E133" t="n">
+        <v>92</v>
+      </c>
+      <c r="F133" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4833,17 +3904,10 @@
           <t>Aventure, Animation</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
+      <c r="E134" t="n">
+        <v>119</v>
+      </c>
+      <c r="F134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4866,17 +3930,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>1h 05min</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
+      <c r="E135" t="n">
+        <v>65</v>
+      </c>
+      <c r="F135" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4899,17 +3956,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>1h 55min</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
+      <c r="E136" t="n">
+        <v>115</v>
+      </c>
+      <c r="F136" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -4932,17 +3982,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
+      <c r="E137" t="n">
+        <v>125</v>
+      </c>
+      <c r="F137" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -4965,17 +4008,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2h 58min</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
+      <c r="E138" t="n">
+        <v>178</v>
+      </c>
+      <c r="F138" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -4998,17 +4034,10 @@
           <t>Action, Policier, Drame</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>2h 50min</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
+      <c r="E139" t="n">
+        <v>170</v>
+      </c>
+      <c r="F139" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -5031,17 +4060,10 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2h 11min</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
+      <c r="E140" t="n">
+        <v>131</v>
+      </c>
+      <c r="F140" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -5064,17 +4086,10 @@
           <t>Drame, Musical, Romance</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
+      <c r="E141" t="n">
+        <v>133</v>
+      </c>
+      <c r="F141" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5097,17 +4112,10 @@
           <t>Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>2h 42min</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
+      <c r="E142" t="n">
+        <v>162</v>
+      </c>
+      <c r="F142" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -5130,17 +4138,10 @@
           <t>Animation, Drame, Famille</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>1h 06min</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
+      <c r="E143" t="n">
+        <v>66</v>
+      </c>
+      <c r="F143" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -5163,17 +4164,10 @@
           <t>Drame, Historique</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
+      <c r="E144" t="n">
+        <v>133</v>
+      </c>
+      <c r="F144" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -5196,17 +4190,10 @@
           <t>Comédie, Comédie dramatique, Romance</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>2h 07min</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
+      <c r="E145" t="n">
+        <v>127</v>
+      </c>
+      <c r="F145" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -5229,17 +4216,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>2h 23min</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
+      <c r="E146" t="n">
+        <v>143</v>
+      </c>
+      <c r="F146" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -5262,17 +4242,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2h 03min</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
+      <c r="E147" t="n">
+        <v>123</v>
+      </c>
+      <c r="F147" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5295,17 +4268,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>2h 04min</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
+      <c r="E148" t="n">
+        <v>124</v>
+      </c>
+      <c r="F148" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5328,17 +4294,10 @@
           <t>Thriller</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
+      <c r="E149" t="n">
+        <v>132</v>
+      </c>
+      <c r="F149" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -5361,17 +4320,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>2h 45min</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
+      <c r="E150" t="n">
+        <v>165</v>
+      </c>
+      <c r="F150" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -5394,17 +4346,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
+      <c r="E151" t="n">
+        <v>105</v>
+      </c>
+      <c r="F151" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5427,17 +4372,10 @@
           <t>Animation, Comédie, Famille</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
+      <c r="E152" t="n">
+        <v>110</v>
+      </c>
+      <c r="F152" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -5460,17 +4398,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>1h 47min</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
+      <c r="E153" t="n">
+        <v>107</v>
+      </c>
+      <c r="F153" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -5493,17 +4424,10 @@
           <t>Action, Drame, Évènement Sportif</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>2h 20min</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
+      <c r="E154" t="n">
+        <v>140</v>
+      </c>
+      <c r="F154" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -5526,17 +4450,10 @@
           <t>Animation</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>1h 27min</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
+      <c r="E155" t="n">
+        <v>87</v>
+      </c>
+      <c r="F155" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -5559,17 +4476,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>2h 51min</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
+      <c r="E156" t="n">
+        <v>171</v>
+      </c>
+      <c r="F156" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -5592,17 +4502,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>1h 55min</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
+      <c r="E157" t="n">
+        <v>115</v>
+      </c>
+      <c r="F157" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -5625,17 +4528,10 @@
           <t>Western</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>2h 10min</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
+      <c r="E158" t="n">
+        <v>130</v>
+      </c>
+      <c r="F158" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -5658,17 +4554,10 @@
           <t>Aventure, Comédie, Science Fiction</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>1h 48min</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
+      <c r="E159" t="n">
+        <v>108</v>
+      </c>
+      <c r="F159" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -5691,17 +4580,10 @@
           <t>Biopic, Drame, Évènement Sportif</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2h 09min</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
+      <c r="E160" t="n">
+        <v>129</v>
+      </c>
+      <c r="F160" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5724,17 +4606,10 @@
           <t>Biopic, Drame, Historique</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
+      <c r="E161" t="n">
+        <v>110</v>
+      </c>
+      <c r="F161" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -5757,17 +4632,10 @@
           <t>Aventure, Famille, Science Fiction</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
+      <c r="E162" t="n">
+        <v>120</v>
+      </c>
+      <c r="F162" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -5790,17 +4658,10 @@
           <t>Animation, Comédie musicale, Romance</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>1h 30min</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
+      <c r="E163" t="n">
+        <v>90</v>
+      </c>
+      <c r="F163" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -5823,17 +4684,10 @@
           <t>Policier</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
+      <c r="E164" t="n">
+        <v>119</v>
+      </c>
+      <c r="F164" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -5856,17 +4710,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
+      <c r="E165" t="n">
+        <v>118</v>
+      </c>
+      <c r="F165" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5889,17 +4736,10 @@
           <t>Comédie dramatique, Historique</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>3h 00min</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
+      <c r="E166" t="n">
+        <v>180</v>
+      </c>
+      <c r="F166" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -5922,17 +4762,10 @@
           <t>Biopic, Drame, Historique</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
+      <c r="E167" t="n">
+        <v>118</v>
+      </c>
+      <c r="F167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5955,17 +4788,10 @@
           <t>Aventure, Famille, Historique</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>1h 53min</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
+      <c r="E168" t="n">
+        <v>113</v>
+      </c>
+      <c r="F168" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -5988,17 +4814,10 @@
           <t>Animation, Comédie, Famille</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>1h 35min</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
+      <c r="E169" t="n">
+        <v>95</v>
+      </c>
+      <c r="F169" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -6021,17 +4840,10 @@
           <t>Aventure, Animation, Drame</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>1h 35min</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
+      <c r="E170" t="n">
+        <v>95</v>
+      </c>
+      <c r="F170" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -6054,17 +4866,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>2h 03min</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
+      <c r="E171" t="n">
+        <v>123</v>
+      </c>
+      <c r="F171" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -6087,17 +4892,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>1h 25min</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
+      <c r="E172" t="n">
+        <v>85</v>
+      </c>
+      <c r="F172" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6120,17 +4918,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>2h 10min</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
+      <c r="E173" t="n">
+        <v>130</v>
+      </c>
+      <c r="F173" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6153,17 +4944,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>1h 33min</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
+      <c r="E174" t="n">
+        <v>93</v>
+      </c>
+      <c r="F174" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6186,17 +4970,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>1h 38min</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
+      <c r="E175" t="n">
+        <v>98</v>
+      </c>
+      <c r="F175" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -6219,17 +4996,10 @@
           <t>Policier, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>2h 23min</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
+      <c r="E176" t="n">
+        <v>143</v>
+      </c>
+      <c r="F176" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -6252,17 +5022,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>1h 42min</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
+      <c r="E177" t="n">
+        <v>102</v>
+      </c>
+      <c r="F177" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -6285,17 +5048,10 @@
           <t>Action, Policier, Drame</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>2h 10min</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
+      <c r="E178" t="n">
+        <v>130</v>
+      </c>
+      <c r="F178" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -6318,17 +5074,10 @@
           <t>Policier, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>1h 55min</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
+      <c r="E179" t="n">
+        <v>115</v>
+      </c>
+      <c r="F179" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -6351,17 +5100,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
+      <c r="E180" t="n">
+        <v>110</v>
+      </c>
+      <c r="F180" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6384,17 +5126,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
+      <c r="E181" t="n">
+        <v>117</v>
+      </c>
+      <c r="F181" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -6417,17 +5152,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>2h 49min</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
+      <c r="E182" t="n">
+        <v>169</v>
+      </c>
+      <c r="F182" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -6450,17 +5178,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>2h 38min</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
+      <c r="E183" t="n">
+        <v>158</v>
+      </c>
+      <c r="F183" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6483,17 +5204,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>2h 31min</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
+      <c r="E184" t="n">
+        <v>151</v>
+      </c>
+      <c r="F184" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -6516,17 +5230,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>2h 07min</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
+      <c r="E185" t="n">
+        <v>127</v>
+      </c>
+      <c r="F185" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -6549,17 +5256,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
+      <c r="E186" t="n">
+        <v>105</v>
+      </c>
+      <c r="F186" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -6582,17 +5282,10 @@
           <t>Drame, Fantastique, Romance</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
+      <c r="E187" t="n">
+        <v>105</v>
+      </c>
+      <c r="F187" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6615,17 +5308,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>3h 09min</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
+      <c r="E188" t="n">
+        <v>189</v>
+      </c>
+      <c r="F188" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6648,17 +5334,10 @@
           <t>Concert</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Concert</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6681,17 +5360,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
+      <c r="E190" t="n">
+        <v>117</v>
+      </c>
+      <c r="F190" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -6714,17 +5386,10 @@
           <t>Action, Animation</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>1h 16min</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
+      <c r="E191" t="n">
+        <v>76</v>
+      </c>
+      <c r="F191" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6747,17 +5412,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>1h 33min</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
+      <c r="E192" t="n">
+        <v>93</v>
+      </c>
+      <c r="F192" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -6780,17 +5438,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>7h 30min</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
+      <c r="E193" t="n">
+        <v>450</v>
+      </c>
+      <c r="F193" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6813,17 +5464,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>2h 26min</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
+      <c r="E194" t="n">
+        <v>146</v>
+      </c>
+      <c r="F194" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -6846,17 +5490,10 @@
           <t>Action, Guerre</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>2h 33min</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
+      <c r="E195" t="n">
+        <v>153</v>
+      </c>
+      <c r="F195" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -6879,17 +5516,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>1h 43min</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
+      <c r="E196" t="n">
+        <v>103</v>
+      </c>
+      <c r="F196" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -6912,17 +5542,10 @@
           <t>Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>2h 02min</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
+      <c r="E197" t="n">
+        <v>122</v>
+      </c>
+      <c r="F197" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -6945,17 +5568,10 @@
           <t>Comédie, Romance</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1h 37min</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
+      <c r="E198" t="n">
+        <v>97</v>
+      </c>
+      <c r="F198" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6978,17 +5594,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2h 26min</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
+      <c r="E199" t="n">
+        <v>146</v>
+      </c>
+      <c r="F199" t="n">
         <v>2.6</v>
       </c>
     </row>
@@ -7011,17 +5620,10 @@
           <t>Animation, Comédie, Famille</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>1h 48min</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
+      <c r="E200" t="n">
+        <v>108</v>
+      </c>
+      <c r="F200" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7044,17 +5646,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>2h 33min</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
+      <c r="E201" t="n">
+        <v>153</v>
+      </c>
+      <c r="F201" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -7077,17 +5672,10 @@
           <t>Comédie, Romance</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>1h 37min</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
+      <c r="E202" t="n">
+        <v>97</v>
+      </c>
+      <c r="F202" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7110,17 +5698,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
+      <c r="E203" t="n">
+        <v>110</v>
+      </c>
+      <c r="F203" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -7143,17 +5724,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
+      <c r="E204" t="n">
+        <v>110</v>
+      </c>
+      <c r="F204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7176,17 +5750,10 @@
           <t>Animation, Famille, Fantastique</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>1h 33min</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
+      <c r="E205" t="n">
+        <v>93</v>
+      </c>
+      <c r="F205" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -7209,17 +5776,10 @@
           <t>Aventure, Biopic, Drame</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>2h 28min</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
+      <c r="E206" t="n">
+        <v>148</v>
+      </c>
+      <c r="F206" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -7242,17 +5802,10 @@
           <t>Biopic, Drame, Historique</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>2h 54min</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
+      <c r="E207" t="n">
+        <v>174</v>
+      </c>
+      <c r="F207" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7275,17 +5828,10 @@
           <t>Animation, Comédie, Famille</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>1h 17min</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
+      <c r="E208" t="n">
+        <v>77</v>
+      </c>
+      <c r="F208" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7308,17 +5854,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>1h 41min</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
+      <c r="E209" t="n">
+        <v>101</v>
+      </c>
+      <c r="F209" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7341,17 +5880,10 @@
           <t>Policier, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>2h 29min</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
+      <c r="E210" t="n">
+        <v>149</v>
+      </c>
+      <c r="F210" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7374,17 +5906,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
+      <c r="E211" t="n">
+        <v>125</v>
+      </c>
+      <c r="F211" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -7407,17 +5932,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>1h 55min</t>
-        </is>
-      </c>
-      <c r="G212" t="n">
+      <c r="E212" t="n">
+        <v>115</v>
+      </c>
+      <c r="F212" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -7440,17 +5958,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>1h 48min</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
+      <c r="E213" t="n">
+        <v>108</v>
+      </c>
+      <c r="F213" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7473,17 +5984,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
+      <c r="E214" t="n">
+        <v>118</v>
+      </c>
+      <c r="F214" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -7506,17 +6010,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>2h 08min</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
+      <c r="E215" t="n">
+        <v>128</v>
+      </c>
+      <c r="F215" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -7539,17 +6036,10 @@
           <t>Drame, Historique, Romance</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>3h 15min</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
+      <c r="E216" t="n">
+        <v>195</v>
+      </c>
+      <c r="F216" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7572,17 +6062,10 @@
           <t>Action, Policier, Drame</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>1h 54min</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
+      <c r="E217" t="n">
+        <v>114</v>
+      </c>
+      <c r="F217" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7605,17 +6088,10 @@
           <t>Comédie, Historique</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>1h 53min</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
+      <c r="E218" t="n">
+        <v>113</v>
+      </c>
+      <c r="F218" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -7638,17 +6114,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>2h 15min</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
+      <c r="E219" t="n">
+        <v>135</v>
+      </c>
+      <c r="F219" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -7671,17 +6140,10 @@
           <t>Action, Science Fiction</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>2h 17min</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
+      <c r="E220" t="n">
+        <v>137</v>
+      </c>
+      <c r="F220" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -7704,17 +6166,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G221" t="n">
+      <c r="E221" t="n">
+        <v>118</v>
+      </c>
+      <c r="F221" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -7737,17 +6192,10 @@
           <t>Animation</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>1h 16min</t>
-        </is>
-      </c>
-      <c r="G222" t="n">
+      <c r="E222" t="n">
+        <v>76</v>
+      </c>
+      <c r="F222" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7770,17 +6218,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>1h 51min</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
+      <c r="E223" t="n">
+        <v>111</v>
+      </c>
+      <c r="F223" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7803,17 +6244,10 @@
           <t>Biopic, Historique, Musical</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>2h 40min</t>
-        </is>
-      </c>
-      <c r="G224" t="n">
+      <c r="E224" t="n">
+        <v>160</v>
+      </c>
+      <c r="F224" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7836,17 +6270,10 @@
           <t>Animation, Drame, Romance</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>1h 48min</t>
-        </is>
-      </c>
-      <c r="G225" t="n">
+      <c r="E225" t="n">
+        <v>108</v>
+      </c>
+      <c r="F225" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7869,17 +6296,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G226" t="n">
+      <c r="E226" t="n">
+        <v>133</v>
+      </c>
+      <c r="F226" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -7902,17 +6322,10 @@
           <t>Action, Animation, Fantastique</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>1h 16min</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
+      <c r="E227" t="n">
+        <v>76</v>
+      </c>
+      <c r="F227" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7935,17 +6348,10 @@
           <t>Policier, Thriller</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>1h 52min</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
+      <c r="E228" t="n">
+        <v>112</v>
+      </c>
+      <c r="F228" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7968,17 +6374,10 @@
           <t>Action, Science Fiction</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
+      <c r="E229" t="n">
+        <v>120</v>
+      </c>
+      <c r="F229" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -8001,17 +6400,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>1h 39min</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
+      <c r="E230" t="n">
+        <v>99</v>
+      </c>
+      <c r="F230" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -8034,17 +6426,10 @@
           <t>Aventure, Biopic, Drame</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>2h 25min</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
+      <c r="E231" t="n">
+        <v>145</v>
+      </c>
+      <c r="F231" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8067,17 +6452,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>2h 22min</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
+      <c r="E232" t="n">
+        <v>142</v>
+      </c>
+      <c r="F232" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -8100,17 +6478,10 @@
           <t>Animation, Drame, Romance</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>2h 09min</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
+      <c r="E233" t="n">
+        <v>129</v>
+      </c>
+      <c r="F233" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -8133,17 +6504,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>2h 21min</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
+      <c r="E234" t="n">
+        <v>141</v>
+      </c>
+      <c r="F234" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -8166,17 +6530,10 @@
           <t>Biopic, Historique, Thriller</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>3h 01min</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
+      <c r="E235" t="n">
+        <v>181</v>
+      </c>
+      <c r="F235" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -8199,17 +6556,10 @@
           <t>Comédie, Drame</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>1h 58min</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
+      <c r="E236" t="n">
+        <v>118</v>
+      </c>
+      <c r="F236" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -8232,17 +6582,10 @@
           <t>Comédie, Romance</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>2h 07min</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
+      <c r="E237" t="n">
+        <v>127</v>
+      </c>
+      <c r="F237" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8265,17 +6608,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G238" t="n">
+      <c r="E238" t="n">
+        <v>117</v>
+      </c>
+      <c r="F238" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -8298,17 +6634,10 @@
           <t>Action, Comédie, Drame</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>3h 57min</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
+      <c r="E239" t="n">
+        <v>237</v>
+      </c>
+      <c r="F239" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -8331,17 +6660,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>1h 49min</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
+      <c r="E240" t="n">
+        <v>109</v>
+      </c>
+      <c r="F240" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -8364,17 +6686,10 @@
           <t>Comédie dramatique, Romance</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G241" t="n">
+      <c r="E241" t="n">
+        <v>125</v>
+      </c>
+      <c r="F241" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -8397,17 +6712,10 @@
           <t>Aventure, Biopic</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>3h 36min</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
+      <c r="E242" t="n">
+        <v>216</v>
+      </c>
+      <c r="F242" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -8430,17 +6738,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>1h 31min</t>
-        </is>
-      </c>
-      <c r="G243" t="n">
+      <c r="E243" t="n">
+        <v>91</v>
+      </c>
+      <c r="F243" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -8463,17 +6764,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>1h 42min</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
+      <c r="E244" t="n">
+        <v>102</v>
+      </c>
+      <c r="F244" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8496,17 +6790,10 @@
           <t>Drame, Historique</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>2h 30min</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
+      <c r="E245" t="n">
+        <v>150</v>
+      </c>
+      <c r="F245" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8529,17 +6816,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>2h 59min</t>
-        </is>
-      </c>
-      <c r="G246" t="n">
+      <c r="E246" t="n">
+        <v>179</v>
+      </c>
+      <c r="F246" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8562,17 +6842,10 @@
           <t>Action, Aventure, Science Fiction</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>2h 20min</t>
-        </is>
-      </c>
-      <c r="G247" t="n">
+      <c r="E247" t="n">
+        <v>140</v>
+      </c>
+      <c r="F247" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -8595,17 +6868,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G248" t="n">
+      <c r="E248" t="n">
+        <v>120</v>
+      </c>
+      <c r="F248" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8628,17 +6894,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>1h 51min</t>
-        </is>
-      </c>
-      <c r="G249" t="n">
+      <c r="E249" t="n">
+        <v>111</v>
+      </c>
+      <c r="F249" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -8661,17 +6920,10 @@
           <t>Comédie, Romance</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>2h 01min</t>
-        </is>
-      </c>
-      <c r="G250" t="n">
+      <c r="E250" t="n">
+        <v>121</v>
+      </c>
+      <c r="F250" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -8694,17 +6946,10 @@
           <t>Comédie, Comédie dramatique, Romance</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G251" t="n">
+      <c r="E251" t="n">
+        <v>120</v>
+      </c>
+      <c r="F251" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -8727,17 +6972,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>1h 35min</t>
-        </is>
-      </c>
-      <c r="G252" t="n">
+      <c r="E252" t="n">
+        <v>95</v>
+      </c>
+      <c r="F252" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -8760,17 +6998,10 @@
           <t>Drame, Western</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>2h 11min</t>
-        </is>
-      </c>
-      <c r="G253" t="n">
+      <c r="E253" t="n">
+        <v>131</v>
+      </c>
+      <c r="F253" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -8793,17 +7024,10 @@
           <t>Action, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>1h 59min</t>
-        </is>
-      </c>
-      <c r="G254" t="n">
+      <c r="E254" t="n">
+        <v>119</v>
+      </c>
+      <c r="F254" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8826,17 +7050,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>1h 20min</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
+      <c r="E255" t="n">
+        <v>80</v>
+      </c>
+      <c r="F255" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -8859,17 +7076,10 @@
           <t>Animation</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>1h 36min</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
+      <c r="E256" t="n">
+        <v>96</v>
+      </c>
+      <c r="F256" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -8892,17 +7102,10 @@
           <t>Drame, Thriller</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>2h 14min</t>
-        </is>
-      </c>
-      <c r="G257" t="n">
+      <c r="E257" t="n">
+        <v>134</v>
+      </c>
+      <c r="F257" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -8925,17 +7128,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G258" t="n">
+      <c r="E258" t="n">
+        <v>132</v>
+      </c>
+      <c r="F258" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -8958,17 +7154,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>2h 52min</t>
-        </is>
-      </c>
-      <c r="G259" t="n">
+      <c r="E259" t="n">
+        <v>172</v>
+      </c>
+      <c r="F259" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8991,17 +7180,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>2h 03min</t>
-        </is>
-      </c>
-      <c r="G260" t="n">
+      <c r="E260" t="n">
+        <v>123</v>
+      </c>
+      <c r="F260" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -9024,15 +7206,8 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
+      <c r="E261" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="262">
@@ -9054,17 +7229,10 @@
           <t>Aventure, Thriller</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>2h 31min</t>
-        </is>
-      </c>
-      <c r="G262" t="n">
+      <c r="E262" t="n">
+        <v>151</v>
+      </c>
+      <c r="F262" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9087,17 +7255,10 @@
           <t>Science Fiction, Thriller</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>2h 33min</t>
-        </is>
-      </c>
-      <c r="G263" t="n">
+      <c r="E263" t="n">
+        <v>153</v>
+      </c>
+      <c r="F263" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -9120,17 +7281,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>1h 50min</t>
-        </is>
-      </c>
-      <c r="G264" t="n">
+      <c r="E264" t="n">
+        <v>110</v>
+      </c>
+      <c r="F264" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -9153,17 +7307,10 @@
           <t>Aventure, Policier, Drame</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G265" t="n">
+      <c r="E265" t="n">
+        <v>132</v>
+      </c>
+      <c r="F265" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -9186,17 +7333,10 @@
           <t>Policier, Drame, Thriller</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>2h 17min</t>
-        </is>
-      </c>
-      <c r="G266" t="n">
+      <c r="E266" t="n">
+        <v>137</v>
+      </c>
+      <c r="F266" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -9219,17 +7359,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>1h 55min</t>
-        </is>
-      </c>
-      <c r="G267" t="n">
+      <c r="E267" t="n">
+        <v>115</v>
+      </c>
+      <c r="F267" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -9252,17 +7385,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>2h 02min</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
+      <c r="E268" t="n">
+        <v>122</v>
+      </c>
+      <c r="F268" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -9285,17 +7411,10 @@
           <t>Drame, Science Fiction</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>2h 36min</t>
-        </is>
-      </c>
-      <c r="G269" t="n">
+      <c r="E269" t="n">
+        <v>156</v>
+      </c>
+      <c r="F269" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9318,17 +7437,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>2h 08min</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
+      <c r="E270" t="n">
+        <v>128</v>
+      </c>
+      <c r="F270" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9351,17 +7463,10 @@
           <t>Aventure, Animation</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>1h 57min</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
+      <c r="E271" t="n">
+        <v>117</v>
+      </c>
+      <c r="F271" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -9384,17 +7489,10 @@
           <t>Animation, Comédie</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>1h 32min</t>
-        </is>
-      </c>
-      <c r="G272" t="n">
+      <c r="E272" t="n">
+        <v>92</v>
+      </c>
+      <c r="F272" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -9417,17 +7515,10 @@
           <t>Comédie</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G273" t="n">
+      <c r="E273" t="n">
+        <v>125</v>
+      </c>
+      <c r="F273" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9450,17 +7541,10 @@
           <t>Drame, Historique</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>3h 51min</t>
-        </is>
-      </c>
-      <c r="G274" t="n">
+      <c r="E274" t="n">
+        <v>231</v>
+      </c>
+      <c r="F274" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9483,17 +7567,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>1h 42min</t>
-        </is>
-      </c>
-      <c r="G275" t="n">
+      <c r="E275" t="n">
+        <v>102</v>
+      </c>
+      <c r="F275" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9516,17 +7593,10 @@
           <t>Drame, Historique, Guerre</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G276" t="n">
+      <c r="E276" t="n">
+        <v>133</v>
+      </c>
+      <c r="F276" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -9549,17 +7619,10 @@
           <t>Drame, Guerre</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G277" t="n">
+      <c r="E277" t="n">
+        <v>120</v>
+      </c>
+      <c r="F277" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -9582,17 +7645,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>1h 43min</t>
-        </is>
-      </c>
-      <c r="G278" t="n">
+      <c r="E278" t="n">
+        <v>103</v>
+      </c>
+      <c r="F278" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -9615,17 +7671,10 @@
           <t>Drame, Fantastique</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>1h 36min</t>
-        </is>
-      </c>
-      <c r="G279" t="n">
+      <c r="E279" t="n">
+        <v>96</v>
+      </c>
+      <c r="F279" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9648,17 +7697,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>1h 32min</t>
-        </is>
-      </c>
-      <c r="G280" t="n">
+      <c r="E280" t="n">
+        <v>92</v>
+      </c>
+      <c r="F280" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9681,17 +7723,10 @@
           <t>Aventure, Animation, Famille</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>1h 44min</t>
-        </is>
-      </c>
-      <c r="G281" t="n">
+      <c r="E281" t="n">
+        <v>104</v>
+      </c>
+      <c r="F281" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -9714,17 +7749,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
+      <c r="E282" t="n">
+        <v>133</v>
+      </c>
+      <c r="F282" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -9747,17 +7775,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>2h 31min</t>
-        </is>
-      </c>
-      <c r="G283" t="n">
+      <c r="E283" t="n">
+        <v>151</v>
+      </c>
+      <c r="F283" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -9780,17 +7801,10 @@
           <t>Aventure, Western</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>2h 19min</t>
-        </is>
-      </c>
-      <c r="G284" t="n">
+      <c r="E284" t="n">
+        <v>139</v>
+      </c>
+      <c r="F284" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9813,17 +7827,10 @@
           <t>Drame, Fantastique</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>1h 45min</t>
-        </is>
-      </c>
-      <c r="G285" t="n">
+      <c r="E285" t="n">
+        <v>105</v>
+      </c>
+      <c r="F285" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9846,17 +7853,10 @@
           <t>Comédie musicale, Romance</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>2h 08min</t>
-        </is>
-      </c>
-      <c r="G286" t="n">
+      <c r="E286" t="n">
+        <v>128</v>
+      </c>
+      <c r="F286" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -9879,17 +7879,10 @@
           <t>Bollywood, Drame</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>2h 05min</t>
-        </is>
-      </c>
-      <c r="G287" t="n">
+      <c r="E287" t="n">
+        <v>125</v>
+      </c>
+      <c r="F287" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9912,17 +7905,10 @@
           <t>Animation, Drame</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>2h 00min</t>
-        </is>
-      </c>
-      <c r="G288" t="n">
+      <c r="E288" t="n">
+        <v>120</v>
+      </c>
+      <c r="F288" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -9945,17 +7931,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>1h 26min</t>
-        </is>
-      </c>
-      <c r="G289" t="n">
+      <c r="E289" t="n">
+        <v>86</v>
+      </c>
+      <c r="F289" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -9978,17 +7957,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>2h 02min</t>
-        </is>
-      </c>
-      <c r="G290" t="n">
+      <c r="E290" t="n">
+        <v>122</v>
+      </c>
+      <c r="F290" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -10011,17 +7983,10 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>2h 12min</t>
-        </is>
-      </c>
-      <c r="G291" t="n">
+      <c r="E291" t="n">
+        <v>132</v>
+      </c>
+      <c r="F291" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -10044,17 +8009,10 @@
           <t>Drame, Romance</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>2h 31min</t>
-        </is>
-      </c>
-      <c r="G292" t="n">
+      <c r="E292" t="n">
+        <v>151</v>
+      </c>
+      <c r="F292" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -10077,17 +8035,10 @@
           <t>Comédie dramatique</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>1h 53min</t>
-        </is>
-      </c>
-      <c r="G293" t="n">
+      <c r="E293" t="n">
+        <v>113</v>
+      </c>
+      <c r="F293" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -10110,17 +8061,10 @@
           <t>Aventure, Western</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>2h 36min</t>
-        </is>
-      </c>
-      <c r="G294" t="n">
+      <c r="E294" t="n">
+        <v>156</v>
+      </c>
+      <c r="F294" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -10143,17 +8087,10 @@
           <t>Policier, Drame</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>2h 15min</t>
-        </is>
-      </c>
-      <c r="G295" t="n">
+      <c r="E295" t="n">
+        <v>135</v>
+      </c>
+      <c r="F295" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -10176,17 +8113,10 @@
           <t>Aventure, Fantastique</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>2h 10min</t>
-        </is>
-      </c>
-      <c r="G296" t="n">
+      <c r="E296" t="n">
+        <v>130</v>
+      </c>
+      <c r="F296" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -10209,17 +8139,10 @@
           <t>Biopic, Drame</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>1h 49min</t>
-        </is>
-      </c>
-      <c r="G297" t="n">
+      <c r="E297" t="n">
+        <v>109</v>
+      </c>
+      <c r="F297" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -10242,17 +8165,10 @@
           <t>Drame</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>1h 42min</t>
-        </is>
-      </c>
-      <c r="G298" t="n">
+      <c r="E298" t="n">
+        <v>102</v>
+      </c>
+      <c r="F298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10275,17 +8191,10 @@
           <t>Biopic, Drame, Musical</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>2h 13min</t>
-        </is>
-      </c>
-      <c r="G299" t="n">
+      <c r="E299" t="n">
+        <v>133</v>
+      </c>
+      <c r="F299" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -10308,17 +8217,10 @@
           <t>Comédie, Drame</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>1h 40min</t>
-        </is>
-      </c>
-      <c r="G300" t="n">
+      <c r="E300" t="n">
+        <v>100</v>
+      </c>
+      <c r="F300" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -10341,17 +8243,10 @@
           <t>Animation, Drame, Fantastique</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Année inconnue</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>2h 21min</t>
-        </is>
-      </c>
-      <c r="G301" t="n">
+      <c r="E301" t="n">
+        <v>141</v>
+      </c>
+      <c r="F301" t="n">
         <v>2.7</v>
       </c>
     </row>
